--- a/result/result_data_test_open.xlsx
+++ b/result/result_data_test_open.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1820,6 +1820,114 @@
         <v>98</v>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>CALL AN AMBULANCE NOW</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>CALL AN AMBULANCE NOW</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>THERE'S A FIRE IN THE BUILDING</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>THERE'S A FIRE IN THE BUILDING</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>SOMEONE IS HURT WE NEED HELP</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>SOMEONE IS HURT WE NEED HELP</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>SOMEONE FAINTED ON THE STREET</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>SOME ONE FAINLP ON THE STREET</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="n">
+        <v>2</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>60</v>
+      </c>
+      <c r="G55" t="n">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
